--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/26_Diyarbakır_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/26_Diyarbakır_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3ADB7B4-E3BC-4395-AD4E-A17061B93B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10D6C47B-479A-4F06-A481-8344795FB4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{4AD1C57C-12A7-4499-97D1-75CCF09DD1F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{E13158C6-1DED-44B1-95D8-0F22A56014A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -931,13 +931,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5FF8BCF0-9CCB-46EC-9A9B-5E862BA5A075}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D2C7B275-F920-4710-982F-6AAD1BB76C73}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7AD59339-F108-4A0D-9C0C-A8EE01B6231A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A8D67CB2-A76C-495A-8A51-06ACD848E005}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9D8481D1-AE8B-4AF2-A862-CF80F35F395A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F0F408EE-98F9-44DC-8EF0-913771AD22FB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6E1973DA-508F-42A2-A660-8B0D324911F9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B916C7FF-078A-44D1-98B6-CBB0BE0F0ACE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1BC40280-83E9-4A34-B4A1-8A658D2FAAB7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3869D4B5-5A08-4F3E-BB70-E432AAC039DD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{00A4B6EC-0B40-4633-B272-A727609AF8D8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9AB8E89C-CA9F-4524-8641-D60DBF0D9233}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{73BF4D0E-A264-4CBB-9730-D8A03E97E47C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CD08126F-2592-45CB-A1D6-BA5895620D38}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB02EC14-C3A7-4A3B-93F5-4978C4390DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD1798D-677D-4B92-9D2D-3C59C8140F4A}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2551,17 +2551,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C436A77-0B7A-430E-8CA3-9C59E9245760}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AA91E498-C57F-4708-B1DB-EC736AEE91B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFA615D2-0F1B-435F-AE65-DC809FAD294F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDE2D5AE-5FF6-4989-8375-9959EBC28F5F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82B1C43B-9BAD-44C3-BB30-11B3FBCDADAC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DA707BB-ACD9-4C32-81DE-236D543F81C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E167611-4343-4D6B-A691-409BC5DCF6A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3BB0063-B873-4D99-9ED6-4C8B6307D1ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CA38024-9A17-495B-9416-FF810917AC2A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA1BEE1C-9651-49B7-A67B-142A3BD78CB9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDD85373-A107-4D86-BABC-95EA9B0EE8A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B4DF541-9D7F-4C2C-9967-D06E9764B3C8}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{298AFEBB-2C3C-4AEE-B3EA-F5EEDB7EA3A3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{602D7BCD-321B-4D22-8150-0792B0B13E7D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D96CAE0-9144-497A-9444-1D975416B6A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72E1065F-38EF-4BC1-B8B9-05A7AB0B2626}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C484053-3705-4470-8235-02E83FCBEED6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04B1EB1B-6193-4E5E-BA8A-54BB9D688C36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D340A7A-F3B3-485F-AA3C-F869C005C8EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C723600A-6262-4C29-8FF6-43D8359573D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C547C92F-5C46-461E-A168-E0C113E84DB5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA1E2D9A-1D80-467D-832F-1F7CB93E43EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7008277-A414-4254-9452-A1A3369CD713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9FC81E-44D2-4659-A7F5-C63DE7E57D5F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3794,17 +3794,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{466FCC8B-C5F7-4B24-8769-7222FC0A967D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CA71176B-9146-49A4-AE1E-A0FA00C3CD24}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{18BB8987-C001-4BC5-B2AA-3DC3A93CFF2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C67A4F9-EFDF-4D15-9EAE-E0F2F9153A04}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2A459A2-A631-4C01-A039-F50CDC4402B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EBB6022E-13F9-4651-94EF-BD1748F4AFBC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97478158-8049-416E-8391-8F7420FE53B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F65C321-A444-48E3-B563-B8ACE5EBF442}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B335604-6CBE-4203-BA5B-4AA3D15BC7C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2E742D8-D0DE-4C28-835E-A344977B9411}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F76EE958-1449-4478-80CE-FA5EB26AA9B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F6B93EB-FF74-45AD-8CA0-883E25F6E5C3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3A480BBD-15B4-4F4A-A38D-FEF0BCC05160}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{47923A5C-FD34-4A25-99C3-63BE3C01C717}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{298B55A1-0530-4A62-9B2C-CA0A6A9BBFB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3C3FE77-8283-4F26-9F13-738DD41B46C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C71E67FE-6606-4730-8E3D-75D3E3C4D2B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{321FC411-AC49-49F8-8225-179255C332E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A2AFED2-5F8A-42BE-A4EE-632A82AA9990}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDBAA5DC-343A-4E2E-A063-FA4ECE8CDF39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B448A8F8-9E74-4043-87BA-0137AA03A630}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00DF8196-285D-47FE-954D-248053D40F97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3817,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E99D13A-A92A-45CD-8D68-6C69D2AD4D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E9203A-2652-4978-89B1-2DED60FAA9AF}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5037,18 +5037,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2809A2BF-ED79-469F-A91A-8D491F43CDCF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1AAABE5A-A0E2-46B4-A98F-0C46F9AA4C44}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA7ABB45-48D2-4051-A373-B990131A75B4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82C04F8A-881E-4D33-A6B8-AD98BC244B3D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41251EE6-0D31-45AC-BAAD-36C31BB3C034}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E6F5A6A-0164-4A7A-B7F9-DFCE769615F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D100AE57-941C-4703-8B16-E004D80023ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{103C12A8-3029-4DA2-AC67-FBFC1402FC41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{620B6943-5FD3-4D19-89CB-244C8BD016A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78A37CB4-2CD2-4B82-A1BB-6DA0490C873B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B59B128-FE1D-47A4-9289-532EF5B2B429}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B27A56C6-051B-4572-A4FD-3D6BF000711B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89CECF87-6181-4D1C-8C8F-02933CCC2BF9}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DBBB3D23-32E8-492E-BCD1-179D5DAC1B11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{178E2EA0-3B8C-4C6E-9B7D-A830C3CBFE6B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E4AFCEEC-C86C-42DF-9269-9178A34455D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{761839D8-BB55-4DEF-98FE-AD1B16989E86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D02C867-B0E9-40AB-A998-B2E963B041EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54FFE182-34B2-44FB-86A8-A775F7CFCD50}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2549386-8C40-468B-9BD6-86BAE4F8C2D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C070FFBA-123E-49C3-BA52-5C3F9EFF2008}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4704EBB8-651D-4BAA-9BBC-B09B6676CCCA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F646761E-0C36-4C32-A205-6391848EF691}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41CAEA60-EEF2-4E93-BA35-680790199FD3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5061,7 +5061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39364CC3-4068-4CEC-AB02-7F30C92989AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDD4F74-9CDF-47B3-A3B3-DF7B7F4B69E5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6273,18 +6273,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29BAE79A-04A4-45E4-A8C3-65B57A78A330}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6A128D35-001A-49F1-B889-E26C0009022C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{713F0D37-C2B3-4CB8-B052-6EE4BAFB18D4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F822FA9-4D2A-4FA7-8B16-B759605BC59B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2483BA9B-CE5E-48FF-A968-061568BA71C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3711E38F-A86F-4D0F-8363-3107F6BB3786}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB2F8A23-AB8A-4609-9908-CCFC6785CE47}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A234D1B-47F0-4E7B-AD2A-BF1F52B64BDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6D77736-BE35-498F-AD0E-9199DA15C8D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30FCA67E-F2B1-4880-BD97-8D4CCFD6E45E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{897603FA-616E-490E-BB7B-9E9D05CF66D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31A5737F-1B6C-4DF5-B007-AD89A47C54A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{751C3371-E886-4E0D-8E85-C2DAA2F699AC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{04223DF9-75F4-46CB-9AB1-B9C1637C02D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FD46F4B-ED07-45E4-851B-981B7DBC5039}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC970F31-AD32-42FB-8100-98A8EA9D0AD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{271712A3-CA40-4D56-A5EC-4FB13D930726}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB318374-8C44-4B39-8AEB-DAA20ECD2E1C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D50D76C4-995A-43B5-A9AF-BDF222490D32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5BEAD96-395D-4B70-8342-2CAD19C1B3A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{836A6C1D-A2E0-4322-B5D0-7E9D6E04A43C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB9F2EBB-90AC-4833-A84B-7C83DF28CF6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE1BC474-4B86-4A37-AB21-19BEBD78524B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FCC36F0-F285-4ED0-8864-A99B0E4FF28F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6297,7 +6297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D75B472-1A50-466C-8BE2-C4F825DF1A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDF446A-8131-4C00-BE4C-FA95B0585E6F}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7537,17 +7537,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F8A64D7-AD24-43C8-9008-47068EE39504}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D9FFBB08-956E-466B-A19C-85C44CE944D9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D20DA5A-3041-44A6-8527-790B56CD51BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A125C45C-91F7-459C-8F44-6064B6C0B7A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AAE289B-B647-4572-BE79-6C931EBA7D9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5C1E0F5-160B-41DF-B2AB-80D1E0F3EFE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5353268-80EF-472C-8ABA-FDF102C4A167}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5636B76F-B230-43D4-B05C-A7AF2BE8E333}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C41E26C8-A471-4764-AD98-C404C03D5BA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4530687-6D04-4EC3-9F2E-24AA109A1605}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA271102-D9F5-4936-84E1-BF684992DA6A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF966E61-4181-422A-B315-8A5F0FD500ED}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AD66C8D0-D4FB-49AE-86C7-45F9A28E426E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A19063E7-37FF-4363-A98E-F18A1F5FD72B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBF69863-157D-470F-A5E4-1FCE5143DA1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{791AAC68-3034-4220-9BAD-B8262A86A733}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67669B08-6B12-4270-9D2F-DA2A1F4C675C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B84F42D-2A15-4D3A-8B67-42806B3CEA1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C722538-2BA4-4777-85C6-BB1563BAEC20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7C613E6-A150-48C1-9079-65D8CB480889}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B950EE0-E6BE-4B2F-A7A4-CB23DF8611B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF15566E-1313-456D-8B28-F3ABFA55056F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7560,7 +7560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE0F81F-EF0C-44B6-AFD3-505093BD7892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05826645-9D07-4A1F-84CC-625E2DFC9C32}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8796,17 +8796,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{328F1EB1-F77C-4EA0-A372-97EFC1C09AB0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{53844500-E867-4374-A93B-7AB12B3392FA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B970AA81-C23E-445B-B7D7-6788F14F77FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4B75864-E9E4-4E57-824A-B15578E1B045}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C54A1091-2DE0-487F-925A-1C08AF6FE0A0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFB2A712-FF60-4D53-B77C-78962609708F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBBC62B7-D881-4E49-82E2-647031A94722}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1BD89559-AC4E-4D12-9126-8B9DE96CBFA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DB568FE-1262-4C35-BC14-4C1603AC673A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22A4E596-C077-4A23-9834-4215A9789A4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4A72BFD-6D66-44FB-9777-15EB3A3901F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97E44FCC-7407-4D72-A4D4-416104EC190E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B9B50EE6-76BE-4558-8AFB-19F94A92BF94}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE76E84D-0258-4E65-82EE-553CA27F7748}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2E34568-5E9F-4A67-983A-B39B33CF76F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38EE7585-D92B-418F-B96C-2D69D61B5BCF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17762389-E72B-4793-AFD5-12B8D6C366B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F6DFEFB-230C-40C0-B1A6-D3CCF23FAA6C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8E18935-65E9-4DFC-9F75-F015BD898323}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B772E536-AA72-4347-9AA5-F09792FF3313}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98A3D13E-027E-410A-ADBB-09E6C2436FD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDBE71E4-CF78-480F-973C-246C3A3AC371}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8819,7 +8819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E9BF79-1472-4735-9DA5-E354A8A88D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376BAAA3-FB7A-4826-900D-7F9398CD3A4B}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10055,17 +10055,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3A49652-21F6-4AD1-A14D-75A206AC7EB2}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DE425B29-C0A7-441D-9A34-661E2BAB2220}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCABDB02-1B11-43D0-A843-0F68D5A8569C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FECDA33E-7CF6-4A70-9B96-7DEF4CBBA220}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CA690F2-CD59-4F29-8AE4-019149FE82B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33BD4E5C-4EA5-4A19-B00A-4BC5042BA166}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{590BD7DD-960E-44B0-9D41-99F532DA5C10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C5241F2-AB80-4445-874B-934BB2723C80}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6605CB9-0470-49D9-92DF-722E329FCD1C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C9C1C22-3B2C-463B-B43E-DD85D0FE41D0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5976B4A5-C62A-49FB-B86C-2BA6B7A66F5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E1314BA-9D90-406F-9992-454AF9063EB1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6BCC36A4-0BE3-41C3-864B-B924DE939A9A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84AEBAB0-100E-41AD-BE4D-C53750362DA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E542505A-5A48-4F70-942A-D1F8FB7677EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC954AC7-D1C1-4D8C-99B6-778133FA4EA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB92CDD3-8907-4944-A0E6-F384BF3A9613}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C422F0E6-7763-4856-A601-F6AB5D539CA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FEBA9A9-0C25-40D7-8079-607CEBAF3AB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2C58516-257F-4736-82E0-6CD0FC9C5F65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C82CB071-5910-4354-BD95-AD2AA3CDF492}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D246EEAE-A297-48BB-BBFB-D20CE400A936}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10078,7 +10078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43751236-0FD0-4BE5-AE7E-97338C63DD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F7D5-5896-4FDB-BAB8-3D7D08A201E8}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11314,17 +11314,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06106511-7467-404C-8431-7F7A0B1DAF49}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{34D0E8EB-503D-4D1B-9BCC-5D8842022508}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A05B3ED5-B9B3-4D2C-9EE3-5EBE20C2A604}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB6616E4-5D3C-464F-A087-9E3A496B30A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79DEA286-762F-4341-A2CD-8777A1874E6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3683AEBD-F040-4A39-8E2A-F1987EBF28B9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDCD215D-23F1-4928-8831-CCA30DB69893}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B205AA0-8E25-408E-88EC-72DF58621C32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5DEA20D-3D40-48BE-A163-7F8E5D88F0AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8F53354-78DB-4C1A-9126-F2F546189AB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E4A52E1-20BE-4610-9013-CF952334F203}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16CA1687-A6D2-4349-B496-B091B0E7ADCC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{75ABDEBB-1805-4A92-9C01-957C310B0A35}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B133F0A5-2DF5-4E7C-B938-8F6D1FC0BD9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02DC9B60-0735-4AB2-BA01-8EFFF9421ECF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14066F7A-2713-432C-80C4-75F795CB996C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4B52DFE-88A1-408D-AE2E-C8F0A8BECD27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C2D84CF-E33C-4ED9-A56F-C001B65974B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EABFF703-3D3B-4E28-B650-C09B1336837C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D706480-5EB7-4027-95EF-59ECCC540204}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9339EFD-8755-42FB-AD05-9E07DE3113F9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BCA4BA2-02B8-4A99-A93E-971CCDE29D9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11337,7 +11337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2CF899-4728-400F-BF31-BA794D2E78C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340670B-F2E4-4141-A695-E03D054873D9}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12565,17 +12565,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A61CFFBB-8F74-4775-878D-8EC24C4F6BD8}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{430AF2B3-F07D-48EA-89FB-4A56985224F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F181032-1C5A-487E-978C-9E0A7F9BBF9D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE1F8D54-F483-411F-A4A5-4054DE17750E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B1B18EC-B4FD-48E1-B33C-AC97594B4810}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0E79B4E-B678-403B-8657-90D90230FA8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EEE039A-964B-49FF-9018-198859B56806}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D9F2DD1-B6AD-41FC-8FAA-43BDE90A2E2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCE749DC-3208-42ED-AEF3-97533F328A28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B55EC419-95DB-42C8-9883-310C2F2555EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99E07031-CB30-4F4E-8BA4-2162DBFE093A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E9241CA-B04F-4218-A714-7E73D03A82EE}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{141B4F4F-4098-4F5F-805E-E778674B3C8C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F03377D5-80AE-46FF-A8E6-2632233B175A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07428C33-41FA-4A09-999A-950DF3A14D54}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26A7B4A1-1105-4703-9ADF-5490D1E04741}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5D6896C-1F62-424E-8AF6-4232689D0A41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50C753A0-2775-45BD-B339-C3F7BA13EA53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C2B62B3-84C4-4D23-8306-8FD997BFC7F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F07F5A8-DC7D-4C05-A640-4B28C2F87854}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD3BF776-3FE2-41B2-A5C3-FB06B5A993C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B115C4C7-8E68-4D45-A904-5A914491BB13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12588,7 +12588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B62D99-494D-439A-9BC5-EF335F2CDA9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B49589-206C-4FB5-835B-B37CA6C455AE}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13816,17 +13816,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F2CA796-AFBC-4B89-A694-5FC65BC77261}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A1D23358-7A37-4158-8B70-7DC09FA41AE9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8CD0393F-0503-495E-B990-98E16BB9EBA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E26964B6-9BEA-4B5B-A15A-D47D65BD7026}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CCD96B3-341C-4566-A9CD-9DE415EDE890}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C358C4DC-73F2-4B0B-9001-564D70D9FA6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E46B4FD-CA57-4D6E-80EB-F1CECC9A6D86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3451178C-5FDC-40A8-A2B9-8097EF8378CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2E444C1-9245-4594-989F-55FB6DB591D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5D39196-3270-4D19-A692-A608DA86A81C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31146982-0433-42F1-9EA3-18B47C4007DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F75A12B5-C2A3-4347-89E8-F94B81C476E6}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{983FFA04-D40D-447C-99EC-CFCA3ACF6721}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75272EA3-65E5-44B7-A243-1D5F3F52A151}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{347EA978-D142-4B81-B944-D67F02E1D611}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F77DC2A6-0A12-4695-A5F3-3FCCA9DDDBE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CFE8393-FD6D-4A63-9D83-EB4D6D783BA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACFA8D98-CF7F-455F-A0DA-B03A050C2BD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80BC45A5-27E2-4274-9189-7D26A2F21907}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BF635B01-6EEB-4104-8B4C-EBAD3CDD3206}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A581DB59-C5FF-42C9-93BC-E3665F9A7C65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12F8F84E-EBCA-4BD3-B441-8E827547C6DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13839,7 +13839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B13A1C-D2CA-4356-B014-90CAB4AC2706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0F6CEE-7835-4D4E-84A8-3AF494034BFA}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15067,17 +15067,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{846739F7-DCC5-43C5-9981-6CF344DFE097}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2C4C7329-308A-4FCC-85E5-80715FB83112}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EC47138F-B927-4D0A-BCCC-787651D7D000}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8569E1F4-2A2D-4091-A4CA-C62BA6E2EDC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62D2012E-962B-437B-A802-82F8231E323A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E18C2807-3F10-4BA4-9521-B062E81BF1E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B80809CB-287A-4E40-B27B-5506F629E67C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{238979ED-5744-4FF9-998C-A497EC8E3A9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC76EA13-E2B2-4638-988A-F9DB3DA5F7BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8020A0AC-1870-4097-852C-C70BC9350615}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A18E8181-D09C-49A2-89D7-8D020658851E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EBA6CDF-5D35-409D-AAB7-23919F2177EA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3FB4F6E7-CC90-4940-AC69-4D44987DA1C9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9FA308FF-D287-4E1C-9AA0-2EA24FD93F4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6713248D-D18E-48CB-A0A0-90EC388313B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14C08092-C17C-4E20-883F-0178C3B94990}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36F89945-3A1D-42B5-A37A-69E756126BA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4E0FEAF-84AE-4F34-9C27-AC5031D70D29}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46DB5003-F9EF-4866-82CF-D83A84E6D3E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A381161-C06D-4195-B101-5640E653F7BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D670727B-AA67-4063-AC7A-0B1E471D0029}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BEF14CA-B355-4238-8932-0D92BA7B971B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15090,7 +15090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187AF0E-C398-409C-B528-E6BFAD472DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C203410-5808-4A80-BEE5-286378B2A6ED}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16310,17 +16310,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{708E03B3-96B8-4D39-9CD2-D4766EB470D5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2087C806-CDBA-4D47-9A1F-B1C46BAF02A9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43BC4587-631E-4AB8-9DC8-77F253156A9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A95B968-8FAB-4A42-9DB9-03DC07E623C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA3AADE9-5FA4-47F0-9B41-C283329DE282}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2F00AE0-B843-4DF5-987C-AFF443A555FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AB0E0FE-0E56-4252-81E1-DF7842C6419E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E50E5C59-A7CD-488C-81A8-62C376D5EAE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF70CA3E-FC5B-4E99-8802-947EAF2F4E35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47B5B0AF-8182-4B11-A025-F4661B648AD4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{112A41D0-C577-4973-AACC-EC8576989E6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{115DAF80-0949-4EFB-A26E-CE701E19A2BA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0419D117-69AF-4EAD-AE96-7AB091EA9683}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6D3938F6-72E8-4F45-95BC-34DAD840141B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6BD8344-30B8-4B1D-A74A-2AA0DD60BE2B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2427E8B5-CDC0-45A7-B4EB-6D5EC9138E53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5921BBA3-2384-4DB1-8156-D18ABDAE3194}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3795A922-DF0E-4FD4-ACED-A940DC735DDA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F797F9AC-896D-495E-B7D7-6E32E001F2AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{46FF8CD0-39A7-4BFB-B9CB-FED802E9599B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34654025-F730-4E21-B3FE-71124CEA48F9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24A5B7FD-D6CD-470C-A010-88D06358BD1D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
